--- a/Documents/Arrangement.xlsx
+++ b/Documents/Arrangement.xlsx
@@ -18,9 +18,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Start Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MileStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成Demo设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成基础demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +69,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +112,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +197,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +232,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +414,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>43603</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43604</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43605</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43606</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43607</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43608</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43609</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43610</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43611</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43612</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43613</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43614</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43615</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>43616</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>43618</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43619</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43620</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43621</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>43622</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43623</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>43624</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>43625</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>43626</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>43627</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>43628</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43629</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>43630</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>43631</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43632</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>43633</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>43634</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43635</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43636</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>43637</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43638</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>43639</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>43640</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43641</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>43642</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43643</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43644</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43645</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43649</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43650</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43651</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>43652</v>
+      </c>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>43653</v>
+      </c>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>43654</v>
+      </c>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>43655</v>
+      </c>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43656</v>
+      </c>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>43657</v>
+      </c>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>43658</v>
+      </c>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>43659</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>43660</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>43698</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="C46:C60"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="C16:C45"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Arrangement.xlsx
+++ b/Documents/Arrangement.xlsx
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +85,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,28 +125,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,14 +453,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
@@ -458,395 +472,395 @@
       <c r="A2" s="2">
         <v>43603</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43604</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43605</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43606</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43607</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43608</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43609</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43610</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43611</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43612</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43613</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43614</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43615</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43616</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43617</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43618</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43619</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43620</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43621</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43622</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43623</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43624</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43625</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43626</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43627</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43628</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43629</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43630</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43631</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43632</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43633</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43634</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43635</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43636</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43637</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43638</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43639</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43640</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43641</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43642</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43643</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43644</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43645</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43646</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43647</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -854,85 +868,85 @@
       <c r="A47" s="2">
         <v>43648</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43649</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43650</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43651</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43652</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43653</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43654</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43655</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43656</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43657</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43658</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43659</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43660</v>
       </c>
-      <c r="C59" s="8"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43661</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -1121,22 +1135,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C46:C60"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C16:C45"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="C22:C45"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1152,18 +1164,20 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C46:C60"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
